--- a/ApolloQA/Data/RatingManual/SC/DT.1.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/DT.1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT.1" sheetId="1" r:id="Ra37e7c37303844cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT.1" sheetId="1" r:id="R7e2916f07788468f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1141,6 +1141,26 @@
         <x:v>29</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Fleet</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -2241,6 +2261,26 @@
         <x:v>54</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Fleet</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
@@ -3335,6 +3375,26 @@
         <x:v>Fleet</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Fleet</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>78</x:v>
       </x:c>
       <x:c t="str">
@@ -4441,6 +4501,26 @@
         <x:v>20</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4.2762</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -5541,6 +5621,26 @@
         <x:v>44</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1698</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
@@ -6635,6 +6735,26 @@
         <x:v>For Hire Public</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9150</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>65</x:v>
       </x:c>
       <x:c t="str">
@@ -7741,6 +7861,26 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5.3455</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -8841,6 +8981,26 @@
         <x:v>34</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7569</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
@@ -9935,6 +10095,26 @@
         <x:v>Livery</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4.0022</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>55</x:v>
       </x:c>
       <x:c t="str">
@@ -11041,6 +11221,26 @@
         <x:v>79</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7299</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -12141,6 +12341,26 @@
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5274</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
@@ -13235,6 +13455,26 @@
         <x:v>Standard</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4.0595</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>45</x:v>
       </x:c>
       <x:c t="str">
@@ -14341,6 +14581,26 @@
         <x:v>74</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7216</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -15441,6 +15701,26 @@
         <x:v>18</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.7056</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
@@ -16535,6 +16815,26 @@
         <x:v>Trucker</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0744</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>35</x:v>
       </x:c>
       <x:c t="str">
@@ -17641,6 +17941,26 @@
         <x:v>59</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4323</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -18741,6 +19061,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.4139</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trucker</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
@@ -19835,6 +20175,26 @@
         <x:v>Unity</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Unity</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>25</x:v>
       </x:c>
       <x:c t="str">
@@ -20941,6 +21301,26 @@
         <x:v>49</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Unity</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -22025,6 +22405,26 @@
       </x:c>
       <x:c t="str">
         <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Unity</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
